--- a/DDT/chethanreddy.xlsx
+++ b/DDT/chethanreddy.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\SeleniumProjectM\DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256A7664-8E59-4069-96C3-31EEABB382D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE76B52-40F4-49A0-A883-7345E9AEE3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="loginamazon" sheetId="2" r:id="rId2"/>
     <sheet name="loginincorrect" sheetId="3" r:id="rId3"/>
+    <sheet name="loginspicejet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>reddy@gmail.com</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>rankin33399@gmail.com</t>
+  </si>
+  <si>
+    <t>Rankin@123</t>
   </si>
 </sst>
 </file>
@@ -452,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA5D719-938B-4392-A7CF-0B32E846A35A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -473,4 +480,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7ADBAB-B7CE-450B-BF0A-AC6708243556}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{B5FC526B-467F-4378-83BC-249626C4F0DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>